--- a/frontend/Book1.xlsx
+++ b/frontend/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohin\Desktop\mailer\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81189BE-E1D9-4452-A348-5B4633E262D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E5C4C-9C4A-4E1C-8A3B-0A266AB74E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27EAA458-7748-41F8-B3E3-EBDD6077E138}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC00934F-2C0D-40E3-AAEF-88A434EA25B5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,6 +534,11 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/Book1.xlsx
+++ b/frontend/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohin\Desktop\mailer\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E5C4C-9C4A-4E1C-8A3B-0A266AB74E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E83AFB7-7689-48A5-8F3E-696C0F7BCE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27EAA458-7748-41F8-B3E3-EBDD6077E138}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>S.No</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>student</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rohini Mittal</t>
   </si>
 </sst>
 </file>
@@ -441,19 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC00934F-2C0D-40E3-AAEF-88A434EA25B5}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="44.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +473,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -477,8 +487,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,8 +501,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +518,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,8 +532,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -524,8 +546,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -535,10 +560,16 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
